--- a/biology/Médecine/1481_en_santé_et_médecine/1481_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1481_en_santé_et_médecine/1481_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1481_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1481_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1481 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1481_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1481_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mars : le roi Louis XI, atteint à Forges, en Anjou, d'un « premier accident (spasme ou ictus ?) », est soigné par Angelo Catho († 1495), Adam Fumée (1430-1494) et Claude de Moulins[1],[2].
-Fondation à Nozeroy en Franche-Comté, par Pierre Courdier et à l'initiative de Louise de Savoie, fille d'Amédée IX, d'une maison-Dieu placée sous le patronage de sainte Barbe[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mars : le roi Louis XI, atteint à Forges, en Anjou, d'un « premier accident (spasme ou ictus ?) », est soigné par Angelo Catho († 1495), Adam Fumée (1430-1494) et Claude de Moulins,.
+Fondation à Nozeroy en Franche-Comté, par Pierre Courdier et à l'initiative de Louise de Savoie, fille d'Amédée IX, d'une maison-Dieu placée sous le patronage de sainte Barbe.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1481_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1481_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Première édition, imprimée à Milan, du Trattato circa la conservazione della sanita[4] d'Ugo Benzi (pt), médecin et philosophe italien († 1439)[5].
-Première édition, imprimée à Milan, du Liber ad Almansorem, traduction latine par Gérard de Crémone (1114-1187) du Kitab al-Mansouri (« Livre de médecine dédié à Mansour ») de Rhazès (865-925)[6].
-Deuxième édition, imprimée à Venise chez Michel Manzolo[7], de l'Aggregator, de Jacopo Dondi (1293-1359[8]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Première édition, imprimée à Milan, du Trattato circa la conservazione della sanita d'Ugo Benzi (pt), médecin et philosophe italien († 1439).
+Première édition, imprimée à Milan, du Liber ad Almansorem, traduction latine par Gérard de Crémone (1114-1187) du Kitab al-Mansouri (« Livre de médecine dédié à Mansour ») de Rhazès (865-925).
+Deuxième édition, imprimée à Venise chez Michel Manzolo, de l'Aggregator, de Jacopo Dondi (1293-1359).</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1481_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1481_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Benoît Victorius (mort en 1561), médecin italien, professeur à Padoue et Bologne, auteur de divers ouvrages de médecine, parmi lesquels une Practica magna de curandis morbis parue à Venise en 1562[9].
-Jérémie van Braeckele (mort en 1550), professeur de médecine à Louvain, auteur d'un Commentaire sur Celse[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Benoît Victorius (mort en 1561), médecin italien, professeur à Padoue et Bologne, auteur de divers ouvrages de médecine, parmi lesquels une Practica magna de curandis morbis parue à Venise en 1562.
+Jérémie van Braeckele (mort en 1550), professeur de médecine à Louvain, auteur d'un Commentaire sur Celse.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1481_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1481_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Enguerrand de Parenty (né à une date inconnue), médecin ordinaire du roi Louis XI, doyen de la faculté de médecine de Paris en 1433[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Enguerrand de Parenty (né à une date inconnue), médecin ordinaire du roi Louis XI, doyen de la faculté de médecine de Paris en 1433.</t>
         </is>
       </c>
     </row>
